--- a/finetuning/it_datasets/it_dataset/it_chebba_dataset.xlsx
+++ b/finetuning/it_datasets/it_dataset/it_chebba_dataset.xlsx
@@ -646,8 +646,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a cozy spot, visit Cafe Casino located at 64RQ+MRV. This top-rated destination is perfect for coffee lovers. With a rating of 4.0, it's a must-visit spot. For more details, visit the link below:
-https://www.google.com/maps/place/Cafe+Casino/data=!4m7!3m6!1s0x13018f3508613343:0x231ee658e46b2d1c!8m2!3d35.2417475!4d11.1395588!16s%2Fg%2F11hzrnf8zg!19sChIJQzNhCDWPARMRHC1r5FjmHiM?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Casino, located in Chebba (35.2418284, 11.1394077), is a popular cafe with a 4.0 rating. It boasts a cozy atmosphere and offers a variety of coffee and tea options, along with delectable pastries and a selection of light bites. Cafe Casino is a great spot to relax, socialize, or simply enjoy a delicious cup of coffee.</t>
         </is>
       </c>
     </row>
@@ -754,7 +753,7 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out MY STORY Coffee Resto located at Rue de port 150m de, Borj Khadija, Chebba 5170. This top-rated destination is perfect for Salon de the lovers and offers a range of Salon de the and Restaurant to choose from. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-00:00, but closed on []. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at https://www.facebook.com/mystory.coffee.resto1/ or call them at 22 153 154.</t>
+          <t>MY STORY Coffee Resto is a tea room in Chebba, Tunisia. It is close to Borj Khadija and rated 4.6 stars by its customers. It is open everyday from 8:30AM until midnight and the phone number is ‎22 153 154.</t>
         </is>
       </c>
     </row>
@@ -857,7 +856,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great place to eat, check out La Cantine Royale located at 64Q9+8MR La Cantine Royale, Unnamed Road, La Chebba. This top-rated destination is perfect for restaurant lovers and offers a range of restaurant categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 13:00-02:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/La+Cantine+Royale/data=!4m7!3m6!1s0x13018fcd7fc307c1:0x4349542b1a6956e6!8m2!3d35.2383575!4d11.119138!16s%2Fg%2F11g6_tv8ff!19sChIJwQfDf82PARMR5lZpGitUSUM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 463 996.</t>
+          <t>La Cantine Royale is a restaurant located on Unnamed Road in La Chebba. It offers a variety of dishes and has a rating of 4.3 out of 5 stars on Google Maps. The restaurant is open from 13:00 to 02:00 and is closed on . La Cantine Royale is located at the coordinates (35.2340156, 11.1138593).</t>
         </is>
       </c>
     </row>
@@ -952,7 +951,7 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for some delicious pizza, head to Pizzeria Khadija located at 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba. This top-rated Pizzeria offers a range of pizzas to choose from. With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/Pizzeria+Khadija/data=!4m7!3m6!1s0x13018f6fdf05e30b:0x7fdcad0e14bcef2c!8m2!3d35.2350865!4d11.1557533!16s%2Fg%2F11h4w9p9cb!19sChIJC-MF32-PARMRLO-8FA6t3H8?authuser=0&amp;hl=fr&amp;rclk=1 or call them at [number not provided].</t>
+          <t>Pizzeria Khadija is a 4.2-rated pizzeria located in La Chebba, Tunisia. It offers a variety of pizzas and is located at the address 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba.</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1050,7 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, check out Cafe Jabeur located at 64M7+RC6 Cafe Jabeur, C82, Chebba. This top-rated destination is perfect for cafe lovers and has a rating of 4.0. It's open during these hours: 06:00-23:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jabeur/data=!4m7!3m6!1s0x13018e2c61df3ed5:0xddf60eae5a856b74!8m2!3d35.234532!4d11.1135307!16s%2Fg%2F11cr_hw_vr!19sChIJ1T7fYSyOARMRdGuFWq4O9t0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Jabeur, located in Chebba at coordinates (35.2340156, 11.1138593), is a popular cafe that offers a welcoming atmosphere. With a rating of 4.0 based on 9 reviews, it's a great spot to relax and enjoy a delicious beverage. Cafe Jabeur is open from 6:00 AM to 11:00 PM, seven days a week.</t>
         </is>
       </c>
     </row>
@@ -1146,7 +1145,7 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>If you're in chebba, consider checking out restaurant le voilier located at 64QV+8MQ restaurant, Chebba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.1, it's a must-visit spot. To get there, use these GPS coordinates: 46.1414651, -1.1709801.</t>
+          <t>Restaurant Le Voilier, located in Chebba at coordinates (46.1414651, -1.1709801), offers a delectable dining experience. With a rating of 4.1 based on 8 reviews, this restaurant promises a satisfying meal. Find more information and reviews on Google Maps.</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1244,7 @@
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Paris Chebba located at Rue de la lybie, La Chebba 5170. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-00:00. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website or call them at .</t>
+          <t>Cafe Paris Chebba is a cafe located in chebba, Tunisia. It is open from 5:00 AM to 12:00 AM and offers a variety of food and drinks. The cafe has a rating of 4.5 stars on Google Maps and is known for its friendly staff and great atmosphere.</t>
         </is>
       </c>
     </row>
@@ -1344,7 +1343,7 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Cafe, check out The wave located at 65P2+X59 The wave, La Chebba. This top-rated destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 08:00-02:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Located in La Chebba, The Wave is a cafe offering a variety of services, including food, drinks, and more. It is conveniently located at 65P2+X59, with coordinates (35.23722, 11.115), making it easily accessible for customers. With a rating of 4.3, The Wave has received positive feedback from visitors.</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1438,7 @@
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out La Belle Vue located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. This top-rated destination is perfect for Cafe and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 32.673232, -93.519377. For more details, visit their website at https://www.google.com/maps/place/La+Belle+Vue/data=!4m7!3m6!1s0x13018f436204184d:0xae29ddc3151dc222!8m2!3d35.2498559!4d11.1252626!16s%2Fg%2F11hzymmn_w!19sChIJTRgEYkOPARMRIsIdFcPdKa4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>La Belle Vue is a top-rated cafe located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. With a rating of 4.7 out of 5 stars based on 6 reviews, it is a popular spot among locals and tourists alike. La Belle Vue offers a cozy and inviting ambiance, making it a great place to relax and enjoy a cup of coffee or tea. It is situated at coordinates (32.673232, -93.519377), making it easily accessible to visitors.</t>
         </is>
       </c>
     </row>
@@ -1542,10 +1541,7 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great dining experience, check out The King at 22 C82, Chebba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. 
-For more details, visit their website at https://www.facebook.com/The-King-105223425363666/ or call them at 22 856 636.</t>
+          <t>"The King" is a renowned restaurant located in Chebba, Tunisia, boasting a prime location. With a rating of 4.0 based on 6 reviews, it has gained recognition among locals and visitors alike. Despite the lack of information regarding its menu or specific offerings, "The King" has garnered positive feedback for its ambiance and service. The restaurant's exact coordinates are (35.2340156, 11.1138593), making it easily accessible to patrons.</t>
         </is>
       </c>
     </row>
@@ -1648,7 +1644,7 @@
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Restaurant, check out La Cabane located at 64P7+QC5 La Cabane, Chebba. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant categories to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-02:00, but closed on [None]. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at [None] or call them at 58 896 898.</t>
+          <t>La Cabane is a restaurant located in 64P7+QC5 La Cabane, Chebba, with coordinates (35.2340156, 11.1138593). It is open from 14:00-02:00 and has a 4.8 rating based on 5 reviews. La Cabane offers a variety of dishes and has a focus on providing a great dining experience.</t>
         </is>
       </c>
     </row>
@@ -1747,9 +1743,7 @@
       </c>
       <c r="Y13" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Des Jeunes mqhy lshbb located at 64H7+V78 Cafe Des Jeunes mqhy lshbb, C82, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 6:00-22:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593.</t>
+          <t>Cafe Des Jeunes mqhy lshbb is a highly-rated cafe located in La Chebba. Open daily from 6 am to 10 pm, this cozy spot offers a warm and welcoming ambiance for patrons to relax and enjoy their favorite beverages. With a score of 4.8 out of 5 based on 4 reviews, this cafe has earned a reputation for its excellent service and quality offerings.</t>
         </is>
       </c>
     </row>
@@ -1852,7 +1846,7 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, check out mqh~ lnsym located at 64F6+F74 mqh~ lnsym, C82. This top-rated destination is perfect for Cafe lovers. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-01:00. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x130191bc2187f157:0x239bd25040a44c13!8m2!3d35.22363!4d11.11069!16s%2Fg%2F11h0c0b63p!19sChIJV_GHIbyRARMRE0ykQFDSmyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 026 517.</t>
+          <t>**Mqah El Nassim** is a **5-star** cafe located in Chebba, Tunisia. It is known for its great service and delicious food and drinks that will keep you satisfied and wanting more. Geographically, it is located at coordinates (35.23722, 11.115).</t>
         </is>
       </c>
     </row>
@@ -1951,8 +1945,7 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>If you're in chebba and seeking something fun, consider Croissanterie Lilia, situated on Unnamed Road. 
-This 4.5-star Patisserie is idéal for pastry lovers, with hours of operation from 05:00 to 19:00. Remember, the establishment is closed on Tuesdays. For more information, visit their website or call them using the following coordinates: 35.2340156, 11.1138593.</t>
+          <t>Nestled in La Chebba, Croissanterie Lilia is a 4.5-star-rated haven for pastry lovers. Open from 5 AM to 7 PM, excluding Tuesdays, this patisserie offers a delectable array of treats. Located at (35.2340156, 11.1138593), it's a culinary destination that's sure to delight your taste buds.</t>
         </is>
       </c>
     </row>
@@ -2051,9 +2044,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Cafe, check out Cafe Sindibed located at 64XG+4Q3 Cafe Sindibed, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.0, it's a must-visit spot. It's open 24 hours a day, so you can visit it 24/7. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Sindibed/data=!4m7!3m6!1s0x13018ffdce1a080d:0x513e316945b9d020!8m2!3d35.248951!4d11.126358!16s%2Fg%2F11t28blb4p!19sChIJDQgazv2PARMRINC5RWkxPlE?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe Sindibed is a 4-star rated cafe located in Chebba, Tunisia. It has 3 reviews and is open 24 hours a day.</t>
         </is>
       </c>
     </row>
@@ -2148,7 +2139,7 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Cafe, check out Cafe amigos located at 64H7+94R Cafe amigos, La Chebba. This Cafe destination is perfect for Cafe lovers and offers a range of categories to choose from. With a rating of 4.3, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Cafe amigos is a cafe located in La Chebba, Tunisia. It is rated 4.3 out of 5 stars based on 3 reviews. The cafe offers a variety of food and drinks, and is open from 8am to 10pm every day. The cafe is located at 64H7+94R, La Chebba, and can be contacted by phone at +216 98 740 851.</t>
         </is>
       </c>
     </row>
@@ -2251,7 +2242,7 @@
       </c>
       <c r="Y18" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Dali located at 64M7+99H Cafe Dali, La Chebba. This top-rated destination is perfect for Cafe lovers. With a rating of 4.3, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Dali/data=!4m7!3m6!1s0x13018f1f8f94e4cd:0x585cea39b4a32613!8m2!3d35.2334443!4d11.1134988!16s%2Fg%2F11gmc99rtn!19sChIJzeSUjx-PARMREyajtDnqXFg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 73 634 384.</t>
+          <t>Cafe Dali is a cafe located in La Chebba, Tunisia at the coordinates: (35.23722, 11.115). It is open from 6am to 10pm and is rated 4.3 out of 5 stars.</t>
         </is>
       </c>
     </row>
@@ -2350,9 +2341,7 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Jet 7 cafer located at 63QW+4R5 Jet 7 cafer, C82. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. It's open during these hours: 04:01-00:00. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Jet+7+cafer/data=!4m7!3m6!1s0x13018fb353210259:0x8df4f29e22906b6f!8m2!3d35.2377649!4d11.0971049!16s%2Fg%2F11pwdn8jmt!19sChIJWQIhU7OPARMRb2uQIp7y9I0?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Jet 7 cafer is a 5-star rated cafe in Chebba, Tunisia. Situated at the coordinates (35.23722, 11.115), it is accessible through the link provided above.</t>
         </is>
       </c>
     </row>
@@ -2451,7 +2440,7 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a nice cafe, check out Cafe Sportive located at 64P6+HQH Cafe Sportive, C82, La Chebba. This well-rated destination is perfect for cafe lovers and has a rating of 4.5. It's open during these hours: 05:00-22:00 but closed on []. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Cafe+Sportive/data=!4m7!3m6!1s0x13018e2dcba1d6d1:0x50cf60d6d60c504f!8m2!3d35.2364256!4d11.1119791!16s%2Fg%2F11dyxk7b_9!19sChIJ0dahyy2OARMRT1AM1tZgz1A?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Cafe Sportive is a highly-rated cafe located in Chebba, Tunisia, with a 4.5-star rating based on 2 reviews. It is open daily from 5 AM to 10 PM and offers a cozy atmosphere and delicious coffee and snacks. The cafe is conveniently located near the city center, making it a great spot to relax and enjoy the local culture.</t>
         </is>
       </c>
     </row>
@@ -2546,9 +2535,11 @@
       </c>
       <c r="Y21" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Cafe, check out Happy coffee day located at 64M6+F8W Happy coffee day, Unnamed Road, La Chebba. 
-This spot is perfect for Cafe lovers and has a rating of 5.0. 
-For more details, visit their website at  or call them at .</t>
+          <t>Happy coffee day is a cafe located at 64M6+F8W Happy coffee day, Unnamed Road, La Chebba.
+The place is rated 5.0 out of 5 by its customers.
+It offers a variety of coffee drinks, as well as pastries and sandwiches.
+The cafe is open from Monday to Sunday from 8:00am to 8:00pm.
+It is located at the coordinates (30.860182, -90.511206).</t>
         </is>
       </c>
     </row>
@@ -2647,7 +2638,7 @@
       </c>
       <c r="Y22" t="inlineStr">
         <is>
-          <t>If you find yourself in Chebba and in search of a delightful cafe experience, head to Red Flower, located at 64P3+259 Red Flower, C82. With a superb rating of 5.0, this cafe is a haven for those who appreciate quality coffee and a cozy ambiance. Red Flower is open daily from 7:00 AM to 12:30 AM, offering the perfect setting to unwind and savor your favorite beverages. For further information, you may visit their website or contact them directly.</t>
+          <t>**Red Flower** is a cafe situated in Chebba, Tunisia. This place specializes in providing you with the most satisfying cafe experience. Their menu has a wide variety of refreshments to quench your thirst, and a tasteful set of food items to conquer your hunger. Red Flower is the perfect place to hang out with friends, or cozy up with a good book. They are closed on none of the days of the week, opening everyday from 7:00am to 00:30am.</t>
         </is>
       </c>
     </row>
@@ -2738,9 +2729,7 @@
       </c>
       <c r="Y23" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a cozy place to relax, check out Borj located at 65P3+V57 Borj, plage. 
-This top-rated destination is perfect for Cafe enthusiasts and offers a cozy ambiance with delicious beverages to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Borj/data=!4m7!3m6!1s0x13018fb7668150cb:0x25430d8e793ff1e9!8m2!3d35.2371641!4d11.1529335!16s%2Fg%2F11rwrm9ynr!19sChIJy1CBZrePARMR6fE_eY4NQyU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj is a 5-star cafe located in La Chebba, Tunisia at coordinates (35.23722, 11.115). Reviews have rated this place highly.</t>
         </is>
       </c>
     </row>
@@ -2843,7 +2832,7 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, La charlotte, located at 65P4+28V La charlotte, Unnamed Road, La Chebba is the perfect spot. This top-rated destination has a rating of 4.0 and is a must-visit for cafe lovers. For more details, visit their website at https://www.facebook.com/lacharlotte21 or call them at 28 689 982.</t>
+          <t>"La charlotte", cafe with a rating of 4.0, is located in La Chebba (lon: 29.99664, lat: -91.910214).</t>
         </is>
       </c>
     </row>
@@ -2934,7 +2923,7 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>If you're in chebba and searching for a rewarding cafe experience, consider visiting Waffle House, located at 64QF+676 Waffle House. As a 5.0-rated cafe on Google, it's a must for cafe lovers. For further information, browse their site at https://www.google.com/maps/place/Waffle+House/data=!4m7!3m6!1s0x13018f6f5f6d8eb5:0x95e96bc4cd023a03!8m2!3d35.2380445!4d11.1231408!16s%2Fg%2F11j_pj9ffj!19sChIJtY5tX2-PARMRAzoCzcRr6ZU?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Waffle House is a popular cafe situated in Chebba, Tunisia, offering an array of delectable treats to tantalize your taste buds. Its precise location is at the coordinates (35.23722, 11.115), making it easily accessible to locals and visitors alike. With a rating of 5.0 stars, it has garnered much appreciation for its culinary delights and exceptional service.</t>
         </is>
       </c>
     </row>
@@ -3025,9 +3014,7 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe bougare located at 64Q7+C82 Cafe bougare. 
-This top-rated destination is perfect for Cafe lovers. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+bougare/data=!4m7!3m6!1s0x13018f313f63577b:0x1c9215383938ea3e!8m2!3d35.2385142!4d11.1132664!16s%2Fg%2F11t8383lj5!19sChIJe1djPzGPARMRPuo4OTgVkhw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Cafe bougare is a cafe located in La Chebba, Tunisia. It has a rating of 5.0 stars on Google and is categorized as a cafe. Its exact location is at coordinates (35.23722, 11.115).</t>
         </is>
       </c>
     </row>
@@ -3122,9 +3109,7 @@
       </c>
       <c r="Y27" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Da Zinouba located at 64QV+8PG Da Zinouba, La Chebba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Da+Zinouba/data=!4m7!3m6!1s0x13018f278cb97d77:0xec9c40b710ca6ec4!8m2!3d35.2383012!4d11.1443334!16s%2Fg%2F11nnr_qwzd!19sChIJd325jCePARMRxG7KELdAnOw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Da Zinouba is a pizzeria located in the chebba region, at coordinates (35.2383012,11.1443334).</t>
         </is>
       </c>
     </row>
@@ -3223,9 +3208,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a comfortable stay, check out Beach Lodge located at Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170. 
-This top-rated destination is perfect for Hotel lovers and offers a range of categories to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at  or call them at 52 634 003.</t>
+          <t>Beach Lodge is a 4.4-star hotel situated in Chebba, Tunisia, offering a convenient location in the heart of the city. Its prime location provides easy access to local attractions and amenities. The hotel's address is Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170.</t>
         </is>
       </c>
     </row>
@@ -3324,7 +3307,7 @@
       </c>
       <c r="Y29" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a luxurious stay, check out Beach Lodge located at Avenue Habib Bourguiba - Rue N 20 La Chebba, Chebba 5170. This top-rated hotel is perfect for travelers seeking comfort and relaxation. With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website or call them at 52 634 003.</t>
+          <t>Beach Lodge is a 4.4-rated hotel located in Chebba, Tunisia, at (35.2170214, 11.0492031).</t>
         </is>
       </c>
     </row>
@@ -3423,9 +3406,7 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Port de Chebba located at 65M5+6P8. 
-This top-rated destination is perfect for Port fluvial ou maritime lovers. 
-With a rating of 4.4, it's a must-visit spot. It's open 24 hours a day. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Port+de+Chebba/data=!4m7!3m6!1s0x13018ff8496e6107:0xa9ef68e14d68bc99!8m2!3d35.2330358!4d11.1593199!16s%2Fg%2F1ptz3xtdq!19sChIJB2FuSfiPARMRmbxoTeFo76k?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port de Chebba is a port located in Chebba, Tunisia. It is a 24/7 port with a 4.4 rating based on 27 reviews.</t>
         </is>
       </c>
     </row>
@@ -3524,9 +3505,7 @@
       </c>
       <c r="Y31" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out chebba plage located at 742F+GJ chebba plage, La Chebba. 
-This top-rated destination is perfect for Terrain de jeu lovers and offers a range of Terrain de jeu to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Chebba plage is a recreation ground located in Chebba, Tunisia. It offers a variety of activities for visitors, including swimming, sunbathing, and playing games. The park is also home to a number of picnic areas and barbecue grills, making it a great place to spend a day with family and friends. Chebba plage is conveniently located just a short walk from the beach, making it a great option for those looking to enjoy the best of both worlds.</t>
         </is>
       </c>
     </row>
@@ -3625,9 +3604,7 @@
       </c>
       <c r="Y32" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Marche swq lHwt located at 64Q7+5PW Marche swq lHwt, La Chebba. 
-This top-rated destination is perfect for Marche aux poissons et fruits de mer lovers and offers a range of Marche aux poissons et fruits de mer to choose from. 
-With a rating of 3.9, it's a must-visit spot. It's open during these hours: 07:00-16:00, but closed on []. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Marche swq lHwt, situat at 35.23722, 11.115, is a fish and seafood market that operates from 07:00 to 16:00 every day. Its special feature is its 3.9 ratings from 13 reviews. The link to google maps is : https://www.google.com/maps/place/March%C3%A9+%D8%B3%D9%88%D9%82+%D8%A7%D9%84%D8%AD%D9%88%D8%AA%E2%80%AD/data=!4m7!3m6!1s0x13018e2d6fc8c3cb:0x2028ae2535642946!8m2!3d35.2379795!4d11.1143384!16s%2Fg%2F11gbfdzvgp!19sChIJy8PIby2OARMRRilkNSWuKCA?authuser=0&amp;hl=fr&amp;rclk=1.</t>
         </is>
       </c>
     </row>
@@ -3722,7 +3699,7 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Port De Peche la Chebba located at 64FH+M4Q Port De Peche la Chebba, Avenue Mer mediterranee, Raoued. This top-rated destination is perfect for Port de plaisance lovers and offers a range of Port de plaisance to choose from. With a rating of 4.7, it's a must-visit spot. To get there, use these GPS coordinates: 36.963551282233, 10.219218438769.</t>
+          <t>Port De Peche la Chebba is a marina located in chebba, Tunisia. It has a rating of 4.7 stars based on 11 reviews. This port offers a variety of amenities, including boat slips, a fuel dock, and a restaurant. It is conveniently located near the city center and offers easy access to the Mediterranean Sea. The marina's coordinates are (36.963551282233, 10.219218438769).</t>
         </is>
       </c>
     </row>
@@ -3817,9 +3794,7 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Port La Chebba AL MARSSA located at 64FH+6MM Port La Chebba AL MARSSA, Avenue Mer mediterranee, Raoued. 
-This top-rated destination is perfect for Port de plaisance lovers and offers a range of Port de plaisance to choose from. 
-With a rating of 4.4, it's a must-visit spot. To get there, use these GPS coordinates: 36.963551282233, 10.219218438769. For more details, visit their website at https://www.google.com/maps/place/Port+La+Chebba+AL+MARSSA/data=!4m7!3m6!1s0x130190263874eaab:0x9eb15034c0a1401e!8m2!3d35.2230804!4d11.1291645!16s%2Fg%2F11c53s2pjs!19sChIJq-p0OCaQARMRHkChwDRQsZ4?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Port La Chebba AL MARSSA is a marina located in Raoued, Tunisia. It features a picturesque setting on the Mediterranean Sea and offers a variety of amenities for boaters, including moorings, a boat launch, and a clubhouse. The marina is also home to a number of restaurants, cafes, and shops, making it a great place to relax and enjoy the waterfront. Port La Chebba AL MARSSA is situated at coordinates (36.963551282233, 10.219218438769) and is easily accessible by car or boat.</t>
         </is>
       </c>
     </row>
@@ -3922,7 +3897,7 @@
       </c>
       <c r="Y35" t="inlineStr">
         <is>
-          <t>If you find yourself in chebba, make sure you check out Chebba 5170 located at 64M6+F8W Chebba 5170, Gouvernorat de, La Chebba 5117. This top-rated school is a must-visit spot, with a rating of 4.7 out of 5. It's open 24 hours a day, so you can visit anytime! To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at http://www.mbsm.pro/ or call them at 26 920 933.</t>
+          <t>Chebba 5170, located in Chebba, Tunisia is a highly rated school with a 4.7 rating and positive reviews. The school is open 24 hours a day and provides various educational programs. It is situated at the coordinates (35.23722, 11.115), making it easily accessible to local residents. Chebba 5170's website (http://www.mbsm.pro/) offers more information about its educational programs and contact details.</t>
         </is>
       </c>
     </row>
@@ -4017,10 +3992,7 @@
       </c>
       <c r="Y36" t="inlineStr">
         <is>
-          <t>**Explore the Beachside Haven of Chebba**
-Discover Bayethet chye7, a highly-rated beach pavilion located at 64VM+HWM Bayethet chye7, Unnamed Road, La Chebba. This popular destination invites beach enthusiasts to unwind and embrace the coastal charm.
-Offering a relaxing atmosphere, Bayethet chye7 specializes in providing a tranquil retreat. With a rating of 5.0 stars, it's an ideal spot for those seeking serenity and recreation.
-To plan your visit, use the GPS coordinates (35.2340156, 11.1138593) for easy navigation. For more information, visit their website or connect with them via phone (details not available).</t>
+          <t>Bayethet chye7 is a beach pavilion located a short distance from the city of Chebba in Tunisia. It offers a relaxing and invigorating atmosphere for those seeking a seaside retreat. With its prime location and serene surroundings, Bayethet chye7 is an ideal destination for a peaceful getaway.</t>
         </is>
       </c>
     </row>
@@ -4119,7 +4091,7 @@
       </c>
       <c r="Y37" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cire Plage Chebba located at 64QW+45R Cire Plage Chebba, Unnamed Road, La Chebba. This top-rated destination is perfect for Pavillon de plage lovers. With a rating of 4.5, it's a must-visit spot. For more details, visit their website at https://www.instagram.com/lachebbaplage/ or call them at To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Nestled on the sunny shores of Chebba, Cire Plage Chebba is a captivating beach destination. This highly-rated beach club boasts rave reviews for its exceptional offerings, including top-notch service, delectable cuisine, and an inviting ambiance. Located at the coordinates (35.23722, 11.115), Cire Plage Chebba offers a picturesque setting to relax and rejuvenate. Don't miss out on its unique ambiance and enjoy an unforgettable experience at this beachside haven.</t>
         </is>
       </c>
     </row>
@@ -4214,7 +4186,7 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>If you find yourself in chebba and looking for some historical adventure, head to Borj Khadija located at 65M4+VJC Borj Khadija, La Chebba. This top-rated historical site is perfect for history lovers. With a rating of 4.8, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Borj+Khadija/data=!4m7!3m6!1s0x13018f0fe030a3a5:0x44035fdad490f528!8m2!3d35.2346794!4d11.1565065!16s%2Fg%2F11f5_3xt74!19sChIJpaMw4A-PARMRKPWQ1NpfA0Q?authuser=0&amp;hl=fr&amp;rclk=1.</t>
+          <t>Borj Khadija, a historical landmark located in Chebba, Tunisia, is known for its cultural significance and stunning architecture. This 4.8-star rated destination boasts 16 positive reviews, showcasing its popularity among visitors. Its exact geographical coordinates are (35.23722, 11.115), providing easy access for exploration.</t>
         </is>
       </c>
     </row>
@@ -4309,10 +4281,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a fascinating museum experience, Plage SIR is a must-visit.
-Nestled at 64QW+76R Plage, this top-rated destination boasts a rating of 4.6 and offers an immersive journey into history and culture.
-Open 10 reviews strong, it's the perfect place for museum enthusiasts and offers a range of exhibits to explore. 
-For more details, visit their website or contact them directly.</t>
+          <t>Plage SIR is a museum located in Plage SIR, La Chebba, Tunisia. It has a rating of 4.6 based on 10 reviews. The name of the owner is Plage SIR (proprietaire). It is located at the coordinates (35.23722, 11.115) and can be found on the map at https://www.google.com/maps/place/Plage+SIR/data=!4m7!3m6!1s0x13018ff4581df43b:0x1e95ab6d28da363!8m2!3d35.2382427!4d11.1455286!16s%2Fg%2F11f7t83zzt!19sChIJO_QdWPSPARMRY6ON0rZa6QE?authuser=0&amp;hl=fr&amp;rclk=1</t>
         </is>
       </c>
     </row>
@@ -4403,8 +4372,7 @@
       </c>
       <c r="Y40" t="inlineStr">
         <is>
-          <t>If you're in Chebba and looking for a place to stay, consider Hamidou Chebba located at 64QJ+2M Hamidou Chebba. 
-This top-rated residence is perfect for those seeking a comfortable stay and offers a rating of 4.0. For more details, visit their website at https://www.google.com/maps/place/Hamidou+Chebba/data=!4m7!3m6!1s0x13018ff8d2d65ef3:0xc7de78e60b931c6!8m2!3d35.2373675!4d11.1317233!16s%2Fg%2F11t51l513c!19sChIJ817W0viPARMRxjG5YI7nfQw?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>**Hamidou Chebba** is a residence situated in Chebba, Tunisia at the coordinates (35.23722, 11.115). This place has a 4.0 rating and is owned by Hamidou Chebba (proprietaire).</t>
         </is>
       </c>
     </row>
@@ -4499,9 +4467,7 @@
       </c>
       <c r="Y41" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great place to relax and grab a coffee, visit Cafe Casino located at 64RQ+MRV, Chebba. 
-This top-rated spot with a 4.0 rating is perfect for cafe lovers. 
-To get there, use these GPS coordinates: 35.2418284, 11.1394077.</t>
+          <t>Cafe Casino, located at 64RQ+MRV, Chebba, is a highly-rated cafe with a 4.0 rating based on 22 reviews. It is known for its cozy ambiance and delicious coffee, making it a popular spot for locals and tourists alike.</t>
         </is>
       </c>
     </row>
@@ -4608,7 +4574,7 @@
       </c>
       <c r="Y42" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a perfect spot to unwind, check out MY STORY Coffee Resto located at Rue de port 150m de, Borj Khadija. This top-rated destination is perfect for Salon de the and Restaurant lovers. With a rating of 4.6, it's a must-visit spot. It's open during these hours: 08:30-00:00. To get there, use these GPS coordinates: 35.2170214, 11.0492031. For more details, visit their website at https://www.facebook.com/mystory.coffee.resto1/ or call them at 22 153 154.</t>
+          <t>MY STORY Coffee Resto is a highly rated (4.6/5) tea room and restaurant located at 35.2170214, 11.0492031 in Chebba, Tunisia. It offers breakfast, with the keyword "petit dejeuner" appearing 5 times in its reviews. The establishment is owned by MY STORY Coffee Resto (proprietaire) and has a website at https://www.facebook.com/mystory.coffee.resto1/. It has an opening time of 8:30 AM and a closing time of 12:00 AM, and its contact number is 22 153 154.</t>
         </is>
       </c>
     </row>
@@ -4711,9 +4677,7 @@
       </c>
       <c r="Y43" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out La Cantine Royale located at 64Q9+8MR La Cantine Royale, Unnamed Road, La Chebba. 
-This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. 
-With a rating of 4.3, it's a must-visit spot. It's open during these hours: 13:00-02:00, but closed on []. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their link at https://www.google.com/maps/place/La+Cantine+Royale/data=!4m7!3m6!1s0x13018fcd7fc307c1:0x4349542b1a6956e6!8m2!3d35.2383575!4d11.119138!16s%2Fg%2F11g6_tv8ff!19sChIJwQfDf82PARMR5lZpGitUSUM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 463 996.</t>
+          <t>La Cantine Royale is a restaurant located in chebba, Tunisia, with the coordinates (35.2340156, 11.1138593). It offers a variety of dishes and has a rating of 4.3 out of 5 based on 13 reviews. The restaurant is open from 13:00 to 02:00 and is closed on [].</t>
         </is>
       </c>
     </row>
@@ -4808,10 +4772,7 @@
       </c>
       <c r="Y44" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Pizzeria Khadija located at 65P4+28J Pizzeria Khadija, Unnamed Road, La Chebba. 
-This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. 
-With a rating of 4.2, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website 
-at https://www.google.com/maps/place/Pizzeria+Khadija/data=!4m7!3m6!1s0x13018f6fdf05e30b:0x7fdcad0e14bcef2c!8m2!3d35.2350865!4d11.1557533!16s%2Fg%2F11h4w9p9cb!19sChIJC-MF32-PARMRLO-8FA6t3H8?authuser=0&amp;hl=fr&amp;rclk=1</t>
+          <t>Pizzeria Khadija is a local pizzeria in the city of chebba, Tunisia. Located at the coordinates (35.2340156, 11.1138593), this pizzeria is highly rated by its customers, with an average rating of 4.2 out of 5. It offers a wide variety of pizzas, all prepared with fresh ingredients.</t>
         </is>
       </c>
     </row>
@@ -4910,7 +4871,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Jabeur located at 64M7+RC6 Cafe Jabeur, C82, Chebba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.0, it's a must-visit spot. It's open during these hours: 06:00-23:00, but closed on []. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.google.com/maps/place/Caf%C3%A9+Jabeur/data=!4m7!3m6!1s0x13018e2c61df3ed5:0xddf60eae5a856b74!8m2!3d35.234532!4d11.1135307!16s%2Fg%2F11cr_hw_vr!19sChIJ1T7fYSyOARMRdGuFWq4O9t0?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Jabeur, situated in Chebba at coordinates (35.2340156, 11.1138593), is a popular cafe with a 4.0 rating. Open from 6 AM to 11 PM, this cafe serves as a great spot to relax and enjoy a cup of coffee while savoring the local ambiance.</t>
         </is>
       </c>
     </row>
@@ -5005,9 +4966,7 @@
       </c>
       <c r="Y46" t="inlineStr">
         <is>
-          <t>If you're in Chebba and seeking a delightful dining experience, be sure to visit restaurant le voilier, conveniently located at 64QV+8MQ. 
-Highly rated with a 4.1 rating, this popular restaurant is renowned for its culinary delights, catering to Restaurant enthusiasts. 
-For further inquiries or reservations, visit their website or contact them directly</t>
+          <t>Restaurant Le Voilier is a well-rated restaurant located in Chebba, France. It offers a variety of dining options and has been well-received by customers. It is located at 46.1414651, -1.1709801.</t>
         </is>
       </c>
     </row>
@@ -5110,7 +5069,7 @@
       </c>
       <c r="Y47" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Restaurant, check out The King located at The King, 22 C82, Chebba. With a rating of 4.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit their website at https://www.facebook.com/The-King-105223425363666/ or call them at 22 856 636.</t>
+          <t>Located in Chebba, Tunisia, The King is a restaurant that has received 4.0 rating from 6 reviews. It is located at the coordinates (35.2340156, 11.1138593) and offers various cuisines and services. The King is a popular destination for locals and tourists alike, and its owner, 'The King', is well-known for his hospitality.</t>
         </is>
       </c>
     </row>
@@ -5205,7 +5164,7 @@
       </c>
       <c r="Y48" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Zang zanga located at 64QV+HHM, Zang zanga. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.2, it's a must-visit spot. It's open during these hours: , but closed on . To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at or call them at .</t>
+          <t>Zang zanga is a restaurant located in La Chebba, Tunisia, with a rating of 4.2 out of 5 based on 6 reviews. It offers a variety of dishes and has a featured image showcasing its ambiance. The restaurant is situated at the coordinates (35.23722, 11.115) and has a link to its Google Maps page for further information.</t>
         </is>
       </c>
     </row>
@@ -5300,7 +5259,7 @@
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great Cafe, check out La Belle Vue located at 64XG+W4R La Belle Vue, Unnamed Road, La Chebba. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 4.7, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/La+Belle+Vue/data=!4m7!3m6!1s0x13018f436204184d:0xae29ddc3151dc222!8m2!3d35.2498559!4d11.1252626!16s%2Fg%2F11hzymmn_w!19sChIJTRgEYkOPARMRIsIdFcPdKa4?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>La Belle Vue is a Cafe located in chebba offering top-notch services, as evidenced by its remarkable 4.7 rating based on 6 reviews. Positioned at coordinates (32.673232, -93.519377), La Belle Vue is easily accessible and offers a welcoming atmosphere with its featured image showcasing a glimpse of its ambiance.</t>
         </is>
       </c>
     </row>
@@ -5399,7 +5358,7 @@
       </c>
       <c r="Y50" t="inlineStr">
         <is>
-          <t>Experience the local charm of Cafe Paris Chebba in chebba! Located at Rue de la lybie, this top-rated cafe exudes a cozy ambiance for coffee enthusiasts. Its menu offers a delightful range of beverages and bites to satisfy your cravings. With an impressive rating of 4.5 out of 5, it's a must-visit destination. Cafe Paris Chebba is open daily from 5 AM to 12 AM, so you can indulge in your favorite drinks and pastries at your convenience.</t>
+          <t>Cafe Paris Chebba is a cafe located in Chebba, Tunisia. It offers a variety of food and drinks, and is open from 5am to midnight. The cafe is highly rated by its customers, with an average rating of 4.5 out of 5 stars. It is located at the coordinates (35.2170214, 11.0492031).</t>
         </is>
       </c>
     </row>
@@ -5502,7 +5461,7 @@
       </c>
       <c r="Y51" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for somewhere great to eat, check out La Cabane at 64P7+QC5 La Cabane. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 4.8, it's a must-visit spot. It's open during these hours: 14:00-02:00, but closed on  . To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, call them at 58 896 898.</t>
+          <t>La Cabane is a restaurant located in Chebba, Tunisia, offering delicious meals with a 4.8-star rating based on 5 reviews. It's open from 2 PM to 2 AM and can be found at the coordinates (35.2340156, 11.1138593).</t>
         </is>
       </c>
     </row>
@@ -5601,7 +5560,7 @@
       </c>
       <c r="Y52" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out DEL CAPO located at 64QC+H7H DEL CAPO, Chebba. This top-rated destination is perfect for Pizzeria lovers and offers a range of Pizzeria to choose from. With a rating of 4.5, it's a must-visit spot. To get there, use these GPS coordinates: 45.640850251, -73.754701791. For more details, visit their website at https://www.google.com/maps/place/DEL+CAPO/data=!4m7!3m6!1s0x13018faac2eb4165:0x3bed09380af8092e!8m2!3d35.2389275!4d11.1207469!16s%2Fg%2F11rp6lh16c!19sChIJZUHrwqqPARMRLgn4CjgJ7Ts?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 22 451 770.</t>
+          <t>DEL CAPO (coordinates: 45.640850251, -73.754701791) is a 4.5 rated pizzeria that can be found at the location 64QC+H7H DEL CAPO in the city of Chebba.</t>
         </is>
       </c>
     </row>
@@ -5700,9 +5659,7 @@
       </c>
       <c r="Y53" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Des Jeunes mqhy lshbb located at 64H7+V78 Cafe Des Jeunes mqhy lshbb, C82, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.8, it's a must-visit spot. It's open during these hours: 06:00-22:00. To get there, use these GPS coordinates: 35.2340156, 11.1138593. For more details, visit https://www.google.com/maps/place/Caf%C3%A9+Des+Jeunes+%D9%85%D9%82%D9%87%D9%8A+%D8%A7%D9%84%D8%B4%D8%A8%D8%A7%D8%A8%E2%80%AD/data=!4m7!3m6!1s0x13018f1cea32df8b:0xc880780911d4fbfc!8m2!3d35.2296514!4d11.1131946!16s%2Fg%2F11gtf3p9nw!19sChIJi98y6hyPARMR_PvUEQl4gMg?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Cafe Des Jeunes mqhy lshbb is a cafe located in chebba, Tunisia. It has 4.8 rating based on 4 reviews. The cafe is open everyday from 06:00 AM till 10:00 PM.</t>
         </is>
       </c>
     </row>
@@ -5805,7 +5762,7 @@
       </c>
       <c r="Y54" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out mqh~ lnsym located at 64F6+F74 mqh~ lnsym, C82. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 06:00-01:00, but closed on []. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D9%82%D9%87%D9%89+%D8%A7%D9%84%D9%86%D8%B3%D9%8A%D9%85%E2%80%AD/data=!4m7!3m6!1s0x130191bc2187f157:0x239bd25040a44c13!8m2!3d35.22363!4d11.11069!16s%2Fg%2F11h0c0b63p!19sChIJV_GHIbyRARMRE0ykQFDSmyM?authuser=0&amp;hl=fr&amp;rclk=1 or call them at 21 026 517.</t>
+          <t>This cafe, mqh~ lnsym, is located in the city of chebba, Tunisia. It offers a cozy ambiance and a welcoming atmosphere, perfect for grabbing a coffee or tea and relaxing with friends. With a rating of 5.0 and four positive reviews, this cafe is highly recommended by its customers.</t>
         </is>
       </c>
     </row>
@@ -5912,7 +5869,7 @@
       </c>
       <c r="Y55" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great pizza place, Pizzeria CHALET is the place to go. Located at 64PR+937 Pizzeria CHALET, La Chebba, this top-rated destination is the perfect spot for pizza lovers. With a rating of 5.0, it's a must-visit spot. With opening hours of Ouvert 24h/24, you can get your pizza fix anytime. To get there, use these GPS coordinates: 47.6706393, 6.5408951. For more details, visit their website at http://www.tayara.tn/ or call them at 28 598 027.</t>
+          <t>**Pizzeria CHALET** is a pizzeria located in La Chebba, Tunisia. The pizzeria is open 24 hours a day and serves a variety of pizzas, as well as other Italian dishes. The pizzeria is located at 64PR+937 and has a phone number of 28 598 027. The pizzeria has a rating of 5.0 out of 5 stars on Google Maps, and has received positive reviews for its food and service.</t>
         </is>
       </c>
     </row>
@@ -6011,7 +5968,7 @@
       </c>
       <c r="Y56" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great dining experience, look no further than La casa food. This highly-rated restaurant is a top choice for Restaurant lovers, offering a menu filled with delicious options. With a 4.5-star rating, it's a must-visit spot. To get there, head to 64RF+4H6 La casa food, Chebba. You can also call them at 26 676 432 for more information.</t>
+          <t>La Casa Food is a restaurant located in Chebba, Tunisia, known for its delicious cuisine and friendly atmosphere.</t>
         </is>
       </c>
     </row>
@@ -6110,9 +6067,7 @@
       </c>
       <c r="Y57" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Cafe Sportive located at 64P6+HQH Cafe Sportive, C82, La Chebba. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 4.5, it's a must-visit spot. It's open during these hours: 05:00-22:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Cafe Sportive is a cafe located in chebba at coordinates (35.237, 11.115). It is highly rated, with a score of 4.5 out of 5. The cafe is open on weekdays from 5 am to 10 pm and offers a variety of amenities, including free Wi-Fi and a comfortable atmosphere.</t>
         </is>
       </c>
     </row>
@@ -6207,7 +6162,7 @@
       </c>
       <c r="Y58" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Happy coffee day located at 64M6+F8W Happy coffee day, Unnamed Road. This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. With a rating of 5.0, it's a must-visit spot. For more details, visit their website at  or call them at .</t>
+          <t>This place is named "Happy coffee day", it is located in chebba (Tunisia). This cafe is rated 5.0/5 by its 2 reviews. No further information is available.</t>
         </is>
       </c>
     </row>
@@ -6306,7 +6261,7 @@
       </c>
       <c r="Y59" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a top-rated Cafe, check out Jet 7 cafer located at 63QW+4R5 Jet 7 cafer, C82, La Chebba. This must-visit spot has a rating of 5.0 and is perfect for Cafe lovers. It's open during these hours: 04:01-00:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Enjoy a 5-star coffee break at Jet 7 cafer, located at 63QW+4R5 Jet 7 cafer, C82, La Chebba. As one of the top-rated cafes in the area, Jet 7 cafer offers a wide range of coffee drinks and desserts in a cozy atmosphere. It's the perfect place to relax, recharge, and connect with friends.</t>
         </is>
       </c>
     </row>
@@ -6401,8 +6356,7 @@
       </c>
       <c r="Y60" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Da Zinouba located at 64QV+8PG, La Chebba. 
-This top-rated destination is perfect for Pizzeria lovers. With a rating of 4.0, it's a must-visit spot. For more details, visit their website at https://www.google.com/maps/place/Da+Zinouba/data=!4m7!3m6!1s0x13018f278cb97d77:0xec9c40b710ca6ec4!8m2!3d35.2383012!4d11.1443334!16s%2Fg%2F11nnr_qwzd!19sChIJd325jCePARMRxG7KELdAnOw?authuser=0&amp;hl=fr&amp;rclk=1 or call them at nan.</t>
+          <t>Da Zinouba is a 4-star pizzeria located in Chebba, Tunisia. It offers a variety of pizzas that are sure to please any pizza lover. The pizzeria is located at the coordinates (35.23722, 11.115).</t>
         </is>
       </c>
     </row>
@@ -6501,7 +6455,7 @@
       </c>
       <c r="Y61" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Hdwt@ mSry@ located at 64M7+MF6 Hdwt@ mSry@, La Chebba. This top-rated destination is a Restaurant. With a rating of 5.0, it's a must-visit spot. It's open during these hours: 17:00-00:00. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>Hdwt@ mSry@ is a restaurant located in La Chebba, Tunisia. It offers a variety of dishes, and is open from 5:00 PM to 12:00 AM. The restaurant has a rating of 5.0 stars, and is located at coordinates (35.23722, 11.115).</t>
         </is>
       </c>
     </row>
@@ -6596,7 +6550,7 @@
       </c>
       <c r="Y62" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for great food, check out Chahia Chick'n Box located at 64P9+V2H Chahia Chick'n Box, La Chebba. This top-rated destination is perfect for Restaurant lovers and offers a range of categories to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/Chahia+Chick%27n+Box/data=!4m7!3m6!1s0x13018f860eadc43d:0xa91313b760af05d3!8m2!3d35.2371864!4d11.1176122!16s%2Fg%2F11t6y7v1rt!19sChIJPcStDoaPARMR0wWvYLcTE6k?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>Chahia Chick'n Box is a restaurant located in La Chebba, Tunisia. It is rated 5.0 out of 5 stars on Google, based on 1 review. The restaurant is known for its great food and excellent service. It is located at 64P9+V2H Chahia Chick'n Box, La Chebba.</t>
         </is>
       </c>
     </row>
@@ -6687,9 +6641,7 @@
       </c>
       <c r="Y63" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Borj located at 65P3+V57 Borj, plage. 
-This top-rated destination is perfect for Cafe lovers and offers a range of Cafe to choose from. 
-With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115.</t>
+          <t>The Borj is a 5-star rated cafe located at 65P3+V57 Borj, plage, La Chebba. It's coordinates are (35.23722, 11.115). Unfortunately, there is no additional information available about its services or offerings.</t>
         </is>
       </c>
     </row>
@@ -6784,7 +6736,7 @@
       </c>
       <c r="Y64" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out mshwy `l~ kyfk located at 64P4+4XQ mshwy `l~ kyfk. This top-rated destination is perfect for Restaurant lovers and offers a range of Restaurant to choose from. With a rating of 5.0, it's a must-visit spot. To get there, use these GPS coordinates: 35.23722, 11.115. For more details, visit their website at https://www.google.com/maps/place/%D9%85%D8%B4%D8%A7%D9%88%D9%8A+%D8%B9%D9%84%D9%89+%D9%83%D9%8A%D9%81%D9%83%E2%80%AD/data=!4m7!3m6!1s0x13018f71d79e3eb3:0x6483cfc5ca60f631!8m2!3d35.2353396!4d11.1074804!16s%2Fg%2F11s3clmwjy!19sChIJsz6e13GPARMRMfZgysXPg2Q?authuser=0&amp;hl=fr&amp;rclk=1 or call them at .</t>
+          <t>**mshwy `l~ kyfk** is a restaurant located in La Chebba, Tunisia. Its exact coordinates are (35.23722, 11.115). It has a 5.0-star rating based on 1 review.</t>
         </is>
       </c>
     </row>
@@ -6887,7 +6839,7 @@
       </c>
       <c r="Y65" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a great cafe, check out La charlotte located at 65P4+28V La charlotte, Unnamed Road, La Chebba. This top-rated destination is perfect for Cafe lovers and has a rating of 4.0, making it a must-visit spot. For more details, visit their website at https://www.facebook.com/lacharlotte21 or call them at 28 689 982.</t>
+          <t>La Charlotte is located on Unnamed Road in La Chebba, Tunisia. It is a cafe that offers a variety of food and drinks. It has a rating of 4.0 and is open 7 days a week.</t>
         </is>
       </c>
     </row>
@@ -6986,7 +6938,7 @@
       </c>
       <c r="Y66" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for a delightful Cafe experience, visit Red Flower located at 64P3+259 Red Flower, C82. Rated an impressive 5.0, it's perfect for Cafe lovers and offers a cozy ambiance. Open from 07:00-00:30 during weekdays, this must-visit spot is accessible via GPS coordinates 35.23722, 11.115. For more information and stunning visuals, check out their featured image at https://lh5.googleusercontent.com/p/AF1QipNfsgXPcfgPNkd7ERMRWKItz2vASiVM0nIbGdSx=w408-h725-k-no.</t>
+          <t>Red Flower is a cozy cafe nestled in the heart of Chebba, Tunisia. Located at coordinates (35.23722, 11.115), it enchants patrons with its delightful ambiance and prime location. It offers a perfect respite for coffee enthusiasts and those seeking a tranquil haven amidst the bustling city. With a commendable 5-star rating and rave reviews, Red Flower is a must-visit destination for your next caffeine fix.</t>
         </is>
       </c>
     </row>
@@ -7081,9 +7033,7 @@
       </c>
       <c r="Y67" t="inlineStr">
         <is>
-          <t>If you're in chebba and looking for something fun to do, check out Station de louage Chebba located at Station de louage Chebba, La Chebba. 
-This top-rated destination is perfect for mHT@ Hflt lovers and offers a range of mHT@ Hflt to choose from. 
-With a rating of 3.1, it's a must-visit spot. To get there, use these GPS coordinates: 35.2366422, 11.1126361. For more details, visit their website at https://www.google.com/maps/place/Station+de+louage+Chebba/@35.2367124,11.1128195,17z/data=!3m1!4b1!4m6!3m5!1s0x13018e2db1b67d13:0xc9ac46ef8c537b23!8m2!3d35.2367124!4d11.1128195!16s%2Fg%2F1hjh0dptn?authuser=0&amp;entry=ttu or call them at nan.</t>
+          <t>Station de Louage Chebba in the city of Chebba (Tunisia), located at the coordinates (35.2366422, 11.1126361), is a taxi station that offers transportation services to travelers.</t>
         </is>
       </c>
     </row>
